--- a/Partners ICLAC.xlsx
+++ b/Partners ICLAC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florenciamunozobon/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florenciamunozobon/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2A0BA9-364C-4F4D-B38F-E7A4F64B50A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7341A99-17E9-C746-B654-CBED1A9659F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Nombre</t>
   </si>
@@ -125,6 +125,24 @@
   </si>
   <si>
     <t>El Centro de Estudios sobre China y Asia-Pacífico (CECHAP) constituye una iniciativa pionera de la Universidad del Pacífico (UP) en el marco de su internacionalización institucional. Establecido en el 2013, en reconocimiento de la importancia de China y el Asia-Pacífico para la economía global y para el Perú en particular, el CECHAP es el único centro académico independiente en el Perú que se especializa en China contemporánea, además de formar parte de una red selecta de centros de estudios asociada al Foro de Coorperación Económica del Asia Pacífico (APEC).</t>
+  </si>
+  <si>
+    <t>El Mostrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenida Santa Lucía 280, Of. 12, Santiago Centro, Santiago, Chile. </t>
+  </si>
+  <si>
+    <t>https://www.elmostrador.cl/</t>
+  </si>
+  <si>
+    <t>El Mostrador es el primer diario online chileno de edición diaria, publicado desde el año 2000. El 25 de mayo de 2010 nace El Mostrador TV. Dicha señal es transmitida actualmente por una señal digital de televisión en la frecuencia 26.1, que es posible sintonizar en el anillo de la Circunvalación Américo Vespucio en Santiago, bajo el nombre El Mostrador HD.En Marzo del 2012 se presenta El Mostrador Mercados, el cual esta dedicado a la información financiera nacional e internacional.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ya6he_SWqfL6M8py3A4MViMLDm23mnU0/view?usp=share_link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-33.439288244064414, </t>
   </si>
 </sst>
 </file>
@@ -422,7 +440,7 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -659,13 +677,27 @@
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-70.644324778819396</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -31513,6 +31545,8 @@
     <hyperlink ref="G4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="E5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="G5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{A56D368E-0538-514D-BAA7-B40D9073B258}"/>
+    <hyperlink ref="G6" r:id="rId10" xr:uid="{2359ED8F-1D67-8B47-9233-3AD367B29906}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
